--- a/leetcode/scores.xlsx
+++ b/leetcode/scores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40700" yWindow="3500" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="1960" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Top1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>Ranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,6 +453,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43289</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.56679999999999997</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/leetcode/scores.xlsx
+++ b/leetcode/scores.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,10 +461,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3">
-        <v>0.56679999999999997</v>
+        <v>0.92510000000000003</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
